--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-JP-CarePlan.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-JP-CarePlan.xlsx
@@ -424,7 +424,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
@@ -447,7 +447,7 @@
     <t>このリソースが適合を主張するプロファイル</t>
   </si>
   <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+    <t>このリソースが準拠すると主張する [StructureDefinition](structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
   </si>
   <si>
     <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
@@ -530,7 +530,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -542,7 +542,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -588,7 +588,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -965,7 +965,7 @@
     <t>日付記録が最初に記録された。</t>
   </si>
   <si>
-    <t>「これは特定のCarePlanレコードがシステム内で作成された日を表します。これはしばしばシステムが生成した日付です。」(Kore wa tokutei no CarePlan rekōdo ga shisutemu nai de sakusei sareda hi o hyō shimasu. Kore wa shibashiba shisutemu ga seisei shita hidzuke desu.)</t>
+    <t>「これは特定のCarePlanレコードがシステム内で作成された日を表します。これはしばしばシステムが生成した日付です。」</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -984,7 +984,7 @@
 </t>
   </si>
   <si>
-    <t>「指名された責任者は誰ですか？」(Shimei sareta sekinin-sha wa dare desu ka?)</t>
+    <t>「指名された責任者は誰ですか？」</t>
   </si>
   <si>
     <t>人口密集地において、著者はケアプランに責任を持っています。ケアプランは著者に帰属されます。</t>
@@ -1002,7 +1002,7 @@
     <t>CarePlan.contributor</t>
   </si>
   <si>
-    <t>「誰がケアプランの内容を提供しましたか？」(Dare ga kea puran no naiyou wo teikyou shimashita ka?)</t>
+    <t>「誰がケアプランの内容を提供しましたか？」</t>
   </si>
   <si>
     <t>介護プランの内容を提供した個人または組織を特定する。</t>
@@ -1494,7 +1494,7 @@
 </t>
   </si>
   <si>
-    <t>「起こるべき場所はどこですか？」(Okoru beki basho wa doko desu ka?)</t>
+    <t>「起こるべき場所はどこですか？」</t>
   </si>
   <si>
     <t>活動が行われる施設を特定します。例えば、自宅、病院、特定のクリニックなどです。</t>
@@ -1544,7 +1544,7 @@
 Reference(Medication|Substance)</t>
   </si>
   <si>
-    <t>「何を管理/供給するのですか？」(Nani wo kanri/kyoukyuu suru no desu ka?)</t>
+    <t>「何を管理/供給するのですか？」</t>
   </si>
   <si>
     <t>活動で消費または提供される食料品、薬品、またはその他の製品を識別します。</t>
@@ -1573,7 +1573,7 @@
 </t>
   </si>
   <si>
-    <t>「1日に何回飲むべきですか？」(Ichi-nichi ni nan-kai nomu beki desu ka?)"</t>
+    <t>「1日に何回飲むべきですか？」"</t>
   </si>
   <si>
     <t>特定日に消費される予想数量を特定する。</t>
